--- a/doc/luisavm.xlsx
+++ b/doc/luisavm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\andre\projects\tinyvm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2435,9 +2435,6 @@
     <t>my_label:</t>
   </si>
   <si>
-    <t>@my_label:</t>
-  </si>
-  <si>
     <t>Global label</t>
   </si>
   <si>
@@ -2529,6 +2526,9 @@
   </si>
   <si>
     <t>Import definition file</t>
+  </si>
+  <si>
+    <t>$my_label:</t>
   </si>
 </sst>
 </file>
@@ -4123,46 +4123,67 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4171,6 +4192,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4183,21 +4243,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4207,54 +4255,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4270,19 +4270,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5463,7 +5463,7 @@
       <c r="P1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="232" t="s">
+      <c r="R1" s="238" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="12" t="s">
@@ -5483,7 +5483,7 @@
       </c>
     </row>
     <row r="2" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="240" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="170" t="s">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="G2" s="173"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="236" t="s">
+      <c r="J2" s="243" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="17" t="s">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="O2" s="20"/>
       <c r="P2" s="21"/>
-      <c r="R2" s="232"/>
+      <c r="R2" s="238"/>
       <c r="S2" s="22" t="s">
         <v>29</v>
       </c>
@@ -5538,7 +5538,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="231"/>
+      <c r="A3" s="240"/>
       <c r="B3" s="151" t="s">
         <v>34</v>
       </c>
@@ -5560,7 +5560,7 @@
       <c r="I3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="236"/>
+      <c r="J3" s="243"/>
       <c r="K3" s="30"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
@@ -5571,7 +5571,7 @@
       <c r="P3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="232"/>
+      <c r="R3" s="238"/>
       <c r="S3" s="22" t="s">
         <v>42</v>
       </c>
@@ -5584,12 +5584,12 @@
       <c r="W3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="230" t="s">
+      <c r="X3" s="239" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="231"/>
+      <c r="A4" s="240"/>
       <c r="B4" s="175" t="s">
         <v>46</v>
       </c>
@@ -5611,7 +5611,7 @@
       <c r="I4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="236"/>
+      <c r="J4" s="243"/>
       <c r="K4" s="30"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
@@ -5622,7 +5622,7 @@
       <c r="P4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="232"/>
+      <c r="R4" s="238"/>
       <c r="S4" s="36" t="s">
         <v>53</v>
       </c>
@@ -5635,10 +5635,10 @@
       <c r="W4" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="230"/>
+      <c r="X4" s="239"/>
     </row>
     <row r="5" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="240" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="170" t="s">
@@ -5662,7 +5662,7 @@
       <c r="I5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="236"/>
+      <c r="J5" s="243"/>
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
@@ -5673,7 +5673,7 @@
       <c r="P5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="232" t="s">
+      <c r="R5" s="238" t="s">
         <v>64</v>
       </c>
       <c r="S5" s="12" t="s">
@@ -5688,10 +5688,10 @@
       <c r="W5" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="X5" s="230"/>
+      <c r="X5" s="239"/>
     </row>
     <row r="6" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="231"/>
+      <c r="A6" s="240"/>
       <c r="B6" s="151" t="s">
         <v>68</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="I6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="233" t="s">
+      <c r="J6" s="241" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="41" t="s">
@@ -5730,7 +5730,7 @@
       <c r="P6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="232"/>
+      <c r="R6" s="238"/>
       <c r="S6" s="22" t="s">
         <v>74</v>
       </c>
@@ -5743,10 +5743,10 @@
       <c r="W6" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="230"/>
+      <c r="X6" s="239"/>
     </row>
     <row r="7" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="231"/>
+      <c r="A7" s="240"/>
       <c r="B7" s="151" t="s">
         <v>78</v>
       </c>
@@ -5768,7 +5768,7 @@
       <c r="I7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="233"/>
+      <c r="J7" s="241"/>
       <c r="K7" s="41" t="s">
         <v>80</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="P7" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="R7" s="232"/>
+      <c r="R7" s="238"/>
       <c r="S7" s="22" t="s">
         <v>84</v>
       </c>
@@ -5796,10 +5796,10 @@
       <c r="W7" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="230"/>
+      <c r="X7" s="239"/>
     </row>
     <row r="8" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="231"/>
+      <c r="A8" s="240"/>
       <c r="B8" s="151" t="s">
         <v>88</v>
       </c>
@@ -5821,7 +5821,7 @@
       <c r="I8" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="233"/>
+      <c r="J8" s="241"/>
       <c r="K8" s="41" t="s">
         <v>91</v>
       </c>
@@ -5836,7 +5836,7 @@
       <c r="P8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="232"/>
+      <c r="R8" s="238"/>
       <c r="S8" s="22" t="s">
         <v>95</v>
       </c>
@@ -5849,10 +5849,10 @@
       <c r="W8" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="X8" s="230"/>
+      <c r="X8" s="239"/>
     </row>
     <row r="9" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="231"/>
+      <c r="A9" s="240"/>
       <c r="B9" s="151" t="s">
         <v>99</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="I9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="234" t="s">
+      <c r="J9" s="242" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="41" t="s">
@@ -5889,7 +5889,7 @@
       <c r="P9" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="232"/>
+      <c r="R9" s="238"/>
       <c r="S9" s="22" t="s">
         <v>104</v>
       </c>
@@ -5902,7 +5902,7 @@
       <c r="W9" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="X9" s="230"/>
+      <c r="X9" s="239"/>
       <c r="AA9" s="137"/>
       <c r="AB9" s="137"/>
       <c r="AC9" s="137"/>
@@ -5937,7 +5937,7 @@
       <c r="BF9" s="137"/>
     </row>
     <row r="10" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="231"/>
+      <c r="A10" s="240"/>
       <c r="B10" s="151" t="s">
         <v>108</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="I10" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="234"/>
+      <c r="J10" s="242"/>
       <c r="K10" s="41" t="s">
         <v>111</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="P10" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="R10" s="232"/>
+      <c r="R10" s="238"/>
       <c r="S10" s="36" t="s">
         <v>114</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="W10" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="X10" s="230"/>
+      <c r="X10" s="239"/>
       <c r="AA10" s="137"/>
       <c r="AB10" s="137"/>
       <c r="AC10" s="137"/>
@@ -6022,7 +6022,7 @@
       <c r="BF10" s="137"/>
     </row>
     <row r="11" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="231"/>
+      <c r="A11" s="240"/>
       <c r="B11" s="175" t="s">
         <v>118</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="I11" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="234"/>
+      <c r="J11" s="242"/>
       <c r="K11" s="45" t="s">
         <v>120</v>
       </c>
@@ -6059,7 +6059,7 @@
       <c r="P11" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="R11" s="232" t="s">
+      <c r="R11" s="238" t="s">
         <v>124</v>
       </c>
       <c r="S11" s="12" t="s">
@@ -6074,7 +6074,7 @@
       <c r="W11" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="X11" s="230"/>
+      <c r="X11" s="239"/>
       <c r="AA11" s="137"/>
       <c r="AB11" s="137"/>
       <c r="AC11" s="137"/>
@@ -6109,7 +6109,7 @@
       <c r="BF11" s="137"/>
     </row>
     <row r="12" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="240" t="s">
         <v>129</v>
       </c>
       <c r="B12" s="170" t="s">
@@ -6138,7 +6138,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="R12" s="232"/>
+      <c r="R12" s="238"/>
       <c r="S12" s="22" t="s">
         <v>133</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="W12" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="X12" s="230"/>
+      <c r="X12" s="239"/>
       <c r="AA12" s="137"/>
       <c r="AB12" s="137"/>
       <c r="AC12" s="137"/>
@@ -6186,7 +6186,7 @@
       <c r="BF12" s="137"/>
     </row>
     <row r="13" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="231"/>
+      <c r="A13" s="240"/>
       <c r="B13" s="151" t="s">
         <v>137</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>142</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="R13" s="232"/>
+      <c r="R13" s="238"/>
       <c r="S13" s="22" t="s">
         <v>143</v>
       </c>
@@ -6238,7 +6238,7 @@
       <c r="W13" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="X13" s="230"/>
+      <c r="X13" s="239"/>
       <c r="AA13" s="137"/>
       <c r="AB13" s="137"/>
       <c r="AC13" s="137"/>
@@ -6273,7 +6273,7 @@
       <c r="BF13" s="137"/>
     </row>
     <row r="14" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="231"/>
+      <c r="A14" s="240"/>
       <c r="B14" s="151" t="s">
         <v>147</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>152</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="R14" s="232"/>
+      <c r="R14" s="238"/>
       <c r="S14" s="22" t="s">
         <v>153</v>
       </c>
@@ -6360,7 +6360,7 @@
       <c r="BF14" s="137"/>
     </row>
     <row r="15" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="231"/>
+      <c r="A15" s="240"/>
       <c r="B15" s="151" t="s">
         <v>158</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>163</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="R15" s="232"/>
+      <c r="R15" s="238"/>
       <c r="S15" s="22" t="s">
         <v>164</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="BF15" s="137"/>
     </row>
     <row r="16" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231"/>
+      <c r="A16" s="240"/>
       <c r="B16" s="151" t="s">
         <v>169</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>174</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="R16" s="232"/>
+      <c r="R16" s="238"/>
       <c r="S16" s="22" t="s">
         <v>175</v>
       </c>
@@ -6533,7 +6533,7 @@
       <c r="BF16" s="137"/>
     </row>
     <row r="17" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="231"/>
+      <c r="A17" s="240"/>
       <c r="B17" s="151" t="s">
         <v>180</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="N17" s="52"/>
       <c r="O17" s="53"/>
       <c r="P17" s="6"/>
-      <c r="R17" s="232"/>
+      <c r="R17" s="238"/>
       <c r="S17" s="22" t="s">
         <v>184</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="BF17" s="137"/>
     </row>
     <row r="18" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="235"/>
+      <c r="A18" s="232"/>
       <c r="B18" s="152" t="s">
         <v>189</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="N18" s="55"/>
       <c r="O18" s="56"/>
       <c r="P18" s="6"/>
-      <c r="R18" s="232"/>
+      <c r="R18" s="238"/>
       <c r="S18" s="36" t="s">
         <v>193</v>
       </c>
@@ -6688,7 +6688,7 @@
       <c r="BF18" s="137"/>
     </row>
     <row r="19" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="241" t="s">
+      <c r="A19" s="235" t="s">
         <v>195</v>
       </c>
       <c r="B19" s="170" t="s">
@@ -6720,7 +6720,7 @@
       <c r="N19" s="46"/>
       <c r="O19" s="57"/>
       <c r="P19" s="6"/>
-      <c r="R19" s="232" t="s">
+      <c r="R19" s="238" t="s">
         <v>200</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -6773,7 +6773,7 @@
       <c r="BF19" s="137"/>
     </row>
     <row r="20" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="242"/>
+      <c r="A20" s="236"/>
       <c r="B20" s="151" t="s">
         <v>205</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>31</v>
       </c>
       <c r="P20" s="6"/>
-      <c r="R20" s="232"/>
+      <c r="R20" s="238"/>
       <c r="S20" s="22" t="s">
         <v>207</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="BF20" s="137"/>
     </row>
     <row r="21" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="242"/>
+      <c r="A21" s="236"/>
       <c r="B21" s="151" t="s">
         <v>211</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>142</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="R21" s="232"/>
+      <c r="R21" s="238"/>
       <c r="S21" s="22" t="s">
         <v>214</v>
       </c>
@@ -6933,7 +6933,7 @@
       <c r="BF21" s="137"/>
     </row>
     <row r="22" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="242"/>
+      <c r="A22" s="236"/>
       <c r="B22" s="151" t="s">
         <v>218</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>223</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="R22" s="232"/>
+      <c r="R22" s="238"/>
       <c r="S22" s="22" t="s">
         <v>224</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="BF22" s="137"/>
     </row>
     <row r="23" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="242"/>
+      <c r="A23" s="236"/>
       <c r="B23" s="151" t="s">
         <v>228</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>234</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="R23" s="232"/>
+      <c r="R23" s="238"/>
       <c r="S23" s="22" t="s">
         <v>235</v>
       </c>
@@ -7107,7 +7107,7 @@
       <c r="BF23" s="137"/>
     </row>
     <row r="24" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="242"/>
+      <c r="A24" s="236"/>
       <c r="B24" s="151" t="s">
         <v>239</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>244</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="R24" s="232"/>
+      <c r="R24" s="238"/>
       <c r="S24" s="22" t="s">
         <v>245</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="BF24" s="137"/>
     </row>
     <row r="25" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="242"/>
+      <c r="A25" s="236"/>
       <c r="B25" s="151" t="s">
         <v>249</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>254</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="R25" s="232"/>
+      <c r="R25" s="238"/>
       <c r="S25" s="22" t="s">
         <v>255</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="BF25" s="137"/>
     </row>
     <row r="26" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="242"/>
+      <c r="A26" s="236"/>
       <c r="B26" s="151" t="s">
         <v>259</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>264</v>
       </c>
       <c r="P26" s="6"/>
-      <c r="R26" s="232"/>
+      <c r="R26" s="238"/>
       <c r="S26" s="22" t="s">
         <v>265</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="BF26" s="137"/>
     </row>
     <row r="27" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="242"/>
+      <c r="A27" s="236"/>
       <c r="B27" s="151" t="s">
         <v>269</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>274</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="R27" s="232"/>
+      <c r="R27" s="238"/>
       <c r="S27" s="22" t="s">
         <v>275</v>
       </c>
@@ -7449,7 +7449,7 @@
       <c r="BF27" s="137"/>
     </row>
     <row r="28" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="243"/>
+      <c r="A28" s="237"/>
       <c r="B28" s="175" t="s">
         <v>279</v>
       </c>
@@ -7477,7 +7477,7 @@
       <c r="N28" s="31"/>
       <c r="O28" s="56"/>
       <c r="P28" s="6"/>
-      <c r="R28" s="232"/>
+      <c r="R28" s="238"/>
       <c r="S28" s="22" t="s">
         <v>282</v>
       </c>
@@ -7522,7 +7522,7 @@
       <c r="BF28" s="137"/>
     </row>
     <row r="29" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="235" t="s">
+      <c r="A29" s="232" t="s">
         <v>467</v>
       </c>
       <c r="B29" s="170" t="s">
@@ -7554,7 +7554,7 @@
       <c r="N29" s="46"/>
       <c r="O29" s="57"/>
       <c r="P29" s="6"/>
-      <c r="R29" s="232"/>
+      <c r="R29" s="238"/>
       <c r="S29" s="22" t="s">
         <v>286</v>
       </c>
@@ -7596,7 +7596,7 @@
       <c r="BF29" s="137"/>
     </row>
     <row r="30" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="239"/>
+      <c r="A30" s="233"/>
       <c r="B30" s="151" t="s">
         <v>469</v>
       </c>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="232"/>
+      <c r="R30" s="238"/>
       <c r="S30" s="22" t="s">
         <v>288</v>
       </c>
@@ -7659,7 +7659,7 @@
       <c r="BF30" s="137"/>
     </row>
     <row r="31" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="239"/>
+      <c r="A31" s="233"/>
       <c r="B31" s="151" t="s">
         <v>470</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="6"/>
-      <c r="R31" s="232"/>
+      <c r="R31" s="238"/>
       <c r="S31" s="66" t="s">
         <v>295</v>
       </c>
@@ -7736,7 +7736,7 @@
       <c r="BF31" s="137"/>
     </row>
     <row r="32" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="239"/>
+      <c r="A32" s="233"/>
       <c r="B32" s="151" t="s">
         <v>471</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>301</v>
       </c>
       <c r="Q32" s="6"/>
-      <c r="R32" s="232"/>
+      <c r="R32" s="238"/>
       <c r="S32" s="22" t="s">
         <v>302</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="BF32" s="137"/>
     </row>
     <row r="33" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="239"/>
+      <c r="A33" s="233"/>
       <c r="B33" s="151" t="s">
         <v>477</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>305</v>
       </c>
       <c r="Q33" s="6"/>
-      <c r="R33" s="232"/>
+      <c r="R33" s="238"/>
       <c r="S33" s="67" t="s">
         <v>306</v>
       </c>
@@ -7882,7 +7882,7 @@
       <c r="BF33" s="137"/>
     </row>
     <row r="34" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="239"/>
+      <c r="A34" s="233"/>
       <c r="B34" s="151" t="s">
         <v>508</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>309</v>
       </c>
       <c r="O34" s="6"/>
-      <c r="R34" s="232"/>
+      <c r="R34" s="238"/>
       <c r="S34" s="36" t="s">
         <v>310</v>
       </c>
@@ -7955,7 +7955,7 @@
       <c r="BF34" s="137"/>
     </row>
     <row r="35" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="239"/>
+      <c r="A35" s="233"/>
       <c r="B35" s="152" t="s">
         <v>510</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>314</v>
       </c>
       <c r="O35" s="6"/>
-      <c r="R35" s="237" t="s">
+      <c r="R35" s="230" t="s">
         <v>315</v>
       </c>
       <c r="S35" s="69" t="s">
@@ -8028,7 +8028,7 @@
       <c r="BF35" s="137"/>
     </row>
     <row r="36" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="240"/>
+      <c r="A36" s="234"/>
       <c r="B36" s="175" t="s">
         <v>512</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>319</v>
       </c>
       <c r="O36" s="6"/>
-      <c r="R36" s="237"/>
+      <c r="R36" s="230"/>
       <c r="S36" s="22" t="s">
         <v>320</v>
       </c>
@@ -8099,7 +8099,7 @@
       <c r="BF36" s="137"/>
     </row>
     <row r="37" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="235" t="s">
+      <c r="A37" s="232" t="s">
         <v>514</v>
       </c>
       <c r="B37" s="170" t="s">
@@ -8132,7 +8132,7 @@
         <v>325</v>
       </c>
       <c r="O37" s="6"/>
-      <c r="R37" s="237"/>
+      <c r="R37" s="230"/>
       <c r="S37" s="22" t="s">
         <v>326</v>
       </c>
@@ -8174,7 +8174,7 @@
       <c r="BF37" s="137"/>
     </row>
     <row r="38" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="239"/>
+      <c r="A38" s="233"/>
       <c r="B38" s="151" t="s">
         <v>516</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>69</v>
       </c>
       <c r="O38" s="6"/>
-      <c r="R38" s="237"/>
+      <c r="R38" s="230"/>
       <c r="S38" s="22" t="s">
         <v>328</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="BF38" s="137"/>
     </row>
     <row r="39" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="239"/>
+      <c r="A39" s="233"/>
       <c r="B39" s="151" t="s">
         <v>517</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>331</v>
       </c>
       <c r="O39" s="6"/>
-      <c r="R39" s="237"/>
+      <c r="R39" s="230"/>
       <c r="S39" s="22" t="s">
         <v>332</v>
       </c>
@@ -8288,7 +8288,7 @@
       <c r="U39" s="58"/>
     </row>
     <row r="40" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="239"/>
+      <c r="A40" s="233"/>
       <c r="B40" s="151" t="s">
         <v>518</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>335</v>
       </c>
       <c r="O40" s="6"/>
-      <c r="R40" s="237"/>
+      <c r="R40" s="230"/>
       <c r="S40" s="22" t="s">
         <v>336</v>
       </c>
@@ -8329,7 +8329,7 @@
       <c r="U40" s="58"/>
     </row>
     <row r="41" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="239"/>
+      <c r="A41" s="233"/>
       <c r="B41" s="151" t="s">
         <v>522</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>339</v>
       </c>
       <c r="O41" s="6"/>
-      <c r="R41" s="237"/>
+      <c r="R41" s="230"/>
       <c r="S41" s="22" t="s">
         <v>340</v>
       </c>
@@ -8368,7 +8368,7 @@
       <c r="U41" s="58"/>
     </row>
     <row r="42" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="239"/>
+      <c r="A42" s="233"/>
       <c r="B42" s="151" t="s">
         <v>524</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>71</v>
       </c>
       <c r="O42" s="6"/>
-      <c r="R42" s="237"/>
+      <c r="R42" s="230"/>
       <c r="S42" s="22" t="s">
         <v>344</v>
       </c>
@@ -8407,7 +8407,7 @@
       <c r="U42" s="58"/>
     </row>
     <row r="43" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="239"/>
+      <c r="A43" s="233"/>
       <c r="B43" s="151" t="s">
         <v>529</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="N43" s="33">
         <v>73</v>
       </c>
-      <c r="R43" s="238"/>
+      <c r="R43" s="231"/>
       <c r="S43" s="126" t="s">
         <v>346</v>
       </c>
@@ -8445,7 +8445,7 @@
       <c r="U43" s="58"/>
     </row>
     <row r="44" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="240"/>
+      <c r="A44" s="234"/>
       <c r="B44" s="175" t="s">
         <v>527</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="U44" s="58"/>
     </row>
     <row r="45" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="235" t="s">
+      <c r="A45" s="232" t="s">
         <v>530</v>
       </c>
       <c r="B45" s="170" t="s">
@@ -8519,7 +8519,7 @@
       <c r="U45" s="58"/>
     </row>
     <row r="46" spans="1:58" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="239"/>
+      <c r="A46" s="233"/>
       <c r="B46" s="151" t="s">
         <v>533</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="U46" s="58"/>
     </row>
     <row r="47" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="239"/>
+      <c r="A47" s="233"/>
       <c r="B47" s="151" t="s">
         <v>534</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="U47" s="58"/>
     </row>
     <row r="48" spans="1:58" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="240"/>
+      <c r="A48" s="234"/>
       <c r="B48" s="175" t="s">
         <v>531</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="U48" s="58"/>
     </row>
     <row r="49" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="235" t="s">
+      <c r="A49" s="232" t="s">
         <v>543</v>
       </c>
       <c r="B49" s="170" t="s">
@@ -8648,7 +8648,7 @@
       <c r="U49" s="58"/>
     </row>
     <row r="50" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="239"/>
+      <c r="A50" s="233"/>
       <c r="B50" s="151" t="s">
         <v>545</v>
       </c>
@@ -8682,7 +8682,7 @@
       <c r="U50" s="58"/>
     </row>
     <row r="51" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="239"/>
+      <c r="A51" s="233"/>
       <c r="B51" s="151" t="s">
         <v>546</v>
       </c>
@@ -8716,7 +8716,7 @@
       <c r="U51" s="58"/>
     </row>
     <row r="52" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="239"/>
+      <c r="A52" s="233"/>
       <c r="B52" s="183" t="s">
         <v>551</v>
       </c>
@@ -8750,7 +8750,7 @@
       <c r="U52" s="58"/>
     </row>
     <row r="53" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="239"/>
+      <c r="A53" s="233"/>
       <c r="B53" s="22" t="s">
         <v>552</v>
       </c>
@@ -8782,7 +8782,7 @@
       <c r="U53" s="58"/>
     </row>
     <row r="54" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="239"/>
+      <c r="A54" s="233"/>
       <c r="B54" s="185" t="s">
         <v>555</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="U54" s="58"/>
     </row>
     <row r="55" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="239"/>
+      <c r="A55" s="233"/>
       <c r="B55" s="185" t="s">
         <v>556</v>
       </c>
@@ -8842,7 +8842,7 @@
       <c r="U55" s="58"/>
     </row>
     <row r="56" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="239"/>
+      <c r="A56" s="233"/>
       <c r="B56" s="185" t="s">
         <v>579</v>
       </c>
@@ -8872,7 +8872,7 @@
       <c r="U56" s="58"/>
     </row>
     <row r="57" spans="1:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="240"/>
+      <c r="A57" s="234"/>
       <c r="B57" s="36" t="s">
         <v>560</v>
       </c>
@@ -8946,13 +8946,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="A49:A57"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="R19:R34"/>
     <mergeCell ref="X3:X13"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="R5:R10"/>
@@ -8963,6 +8956,13 @@
     <mergeCell ref="R1:R4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="J2:J5"/>
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="R19:R34"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
@@ -9006,52 +9006,52 @@
       <c r="F1" s="168" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="241" t="s">
+      <c r="H1" s="235" t="s">
         <v>577</v>
       </c>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="258"/>
-      <c r="P1" s="258"/>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="258"/>
-      <c r="T1" s="258"/>
-      <c r="U1" s="258"/>
-      <c r="V1" s="258"/>
-      <c r="W1" s="258"/>
-      <c r="X1" s="258"/>
-      <c r="Y1" s="258"/>
-      <c r="Z1" s="258"/>
-      <c r="AA1" s="258"/>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="258"/>
-      <c r="AD1" s="258"/>
-      <c r="AE1" s="258"/>
-      <c r="AF1" s="258"/>
-      <c r="AG1" s="258"/>
-      <c r="AH1" s="258"/>
-      <c r="AI1" s="258"/>
-      <c r="AJ1" s="258"/>
-      <c r="AK1" s="258"/>
-      <c r="AL1" s="258"/>
-      <c r="AM1" s="259"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="244"/>
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="244"/>
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="244"/>
+      <c r="AG1" s="244"/>
+      <c r="AH1" s="244"/>
+      <c r="AI1" s="244"/>
+      <c r="AJ1" s="244"/>
+      <c r="AK1" s="244"/>
+      <c r="AL1" s="244"/>
+      <c r="AM1" s="245"/>
     </row>
     <row r="2" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="251" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="268" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="248" t="s">
+      <c r="C2" s="268" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="268" t="s">
+      <c r="D2" s="258" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="12">
@@ -9158,10 +9158,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="246"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="269"/>
+      <c r="A3" s="266"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="259"/>
       <c r="E3" s="22">
         <v>1</v>
       </c>
@@ -9171,47 +9171,47 @@
       <c r="H3" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="262" t="s">
+      <c r="I3" s="248" t="s">
         <v>507</v>
       </c>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="262"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="260" t="s">
+      <c r="J3" s="248"/>
+      <c r="K3" s="248"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="248"/>
+      <c r="P3" s="248"/>
+      <c r="Q3" s="248"/>
+      <c r="R3" s="246" t="s">
         <v>382</v>
       </c>
-      <c r="S3" s="260"/>
-      <c r="T3" s="260"/>
-      <c r="U3" s="260"/>
-      <c r="V3" s="260"/>
-      <c r="W3" s="260"/>
-      <c r="X3" s="260"/>
-      <c r="Y3" s="260"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="260"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="260"/>
-      <c r="AD3" s="260"/>
-      <c r="AE3" s="260"/>
-      <c r="AF3" s="260"/>
-      <c r="AG3" s="260"/>
-      <c r="AH3" s="260"/>
-      <c r="AI3" s="260"/>
-      <c r="AJ3" s="260"/>
-      <c r="AK3" s="260"/>
-      <c r="AL3" s="260"/>
-      <c r="AM3" s="261"/>
+      <c r="S3" s="246"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="246"/>
+      <c r="V3" s="246"/>
+      <c r="W3" s="246"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="246"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="246"/>
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="246"/>
+      <c r="AG3" s="246"/>
+      <c r="AH3" s="246"/>
+      <c r="AI3" s="246"/>
+      <c r="AJ3" s="246"/>
+      <c r="AK3" s="246"/>
+      <c r="AL3" s="246"/>
+      <c r="AM3" s="247"/>
     </row>
     <row r="4" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="246"/>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="269"/>
+      <c r="A4" s="266"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="259"/>
       <c r="E4" s="22">
         <v>2</v>
       </c>
@@ -9226,10 +9226,10 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="246"/>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="269"/>
+      <c r="A5" s="266"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="259"/>
       <c r="E5" s="22">
         <v>3</v>
       </c>
@@ -9238,10 +9238,10 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="246"/>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="269"/>
+      <c r="A6" s="266"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="259"/>
       <c r="E6" s="22">
         <v>4</v>
       </c>
@@ -9250,14 +9250,14 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="246"/>
-      <c r="B7" s="249" t="s">
+      <c r="A7" s="266"/>
+      <c r="B7" s="269" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="249" t="s">
+      <c r="C7" s="269" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="269" t="s">
+      <c r="D7" s="259" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="22">
@@ -9266,46 +9266,46 @@
       <c r="F7" s="154" t="s">
         <v>299</v>
       </c>
-      <c r="H7" s="241" t="s">
+      <c r="H7" s="235" t="s">
         <v>510</v>
       </c>
-      <c r="I7" s="258"/>
-      <c r="J7" s="258"/>
-      <c r="K7" s="258"/>
-      <c r="L7" s="258"/>
-      <c r="M7" s="258"/>
-      <c r="N7" s="258"/>
-      <c r="O7" s="258"/>
-      <c r="P7" s="258"/>
-      <c r="Q7" s="258"/>
-      <c r="R7" s="258"/>
-      <c r="S7" s="258"/>
-      <c r="T7" s="258"/>
-      <c r="U7" s="258"/>
-      <c r="V7" s="258"/>
-      <c r="W7" s="258"/>
-      <c r="X7" s="258"/>
-      <c r="Y7" s="258"/>
-      <c r="Z7" s="258"/>
-      <c r="AA7" s="258"/>
-      <c r="AB7" s="258"/>
-      <c r="AC7" s="258"/>
-      <c r="AD7" s="258"/>
-      <c r="AE7" s="258"/>
-      <c r="AF7" s="258"/>
-      <c r="AG7" s="258"/>
-      <c r="AH7" s="258"/>
-      <c r="AI7" s="258"/>
-      <c r="AJ7" s="258"/>
-      <c r="AK7" s="258"/>
-      <c r="AL7" s="258"/>
-      <c r="AM7" s="259"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="244"/>
+      <c r="M7" s="244"/>
+      <c r="N7" s="244"/>
+      <c r="O7" s="244"/>
+      <c r="P7" s="244"/>
+      <c r="Q7" s="244"/>
+      <c r="R7" s="244"/>
+      <c r="S7" s="244"/>
+      <c r="T7" s="244"/>
+      <c r="U7" s="244"/>
+      <c r="V7" s="244"/>
+      <c r="W7" s="244"/>
+      <c r="X7" s="244"/>
+      <c r="Y7" s="244"/>
+      <c r="Z7" s="244"/>
+      <c r="AA7" s="244"/>
+      <c r="AB7" s="244"/>
+      <c r="AC7" s="244"/>
+      <c r="AD7" s="244"/>
+      <c r="AE7" s="244"/>
+      <c r="AF7" s="244"/>
+      <c r="AG7" s="244"/>
+      <c r="AH7" s="244"/>
+      <c r="AI7" s="244"/>
+      <c r="AJ7" s="244"/>
+      <c r="AK7" s="244"/>
+      <c r="AL7" s="244"/>
+      <c r="AM7" s="245"/>
     </row>
     <row r="8" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="246"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="269"/>
+      <c r="A8" s="266"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="259"/>
       <c r="E8" s="22">
         <v>1</v>
       </c>
@@ -9410,10 +9410,10 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="246"/>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="269"/>
+      <c r="A9" s="266"/>
+      <c r="B9" s="269"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="259"/>
       <c r="E9" s="22">
         <v>2</v>
       </c>
@@ -9432,44 +9432,44 @@
       <c r="K9" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="265" t="s">
+      <c r="L9" s="255" t="s">
         <v>507</v>
       </c>
-      <c r="M9" s="266"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="263" t="s">
+      <c r="M9" s="256"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="253" t="s">
         <v>502</v>
       </c>
-      <c r="P9" s="263"/>
-      <c r="Q9" s="263"/>
-      <c r="R9" s="263"/>
-      <c r="S9" s="263"/>
-      <c r="T9" s="263"/>
-      <c r="U9" s="263"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
-      <c r="AI9" s="263"/>
-      <c r="AJ9" s="263"/>
-      <c r="AK9" s="263"/>
-      <c r="AL9" s="263"/>
-      <c r="AM9" s="264"/>
+      <c r="P9" s="253"/>
+      <c r="Q9" s="253"/>
+      <c r="R9" s="253"/>
+      <c r="S9" s="253"/>
+      <c r="T9" s="253"/>
+      <c r="U9" s="253"/>
+      <c r="V9" s="253"/>
+      <c r="W9" s="253"/>
+      <c r="X9" s="253"/>
+      <c r="Y9" s="253"/>
+      <c r="Z9" s="253"/>
+      <c r="AA9" s="253"/>
+      <c r="AB9" s="253"/>
+      <c r="AC9" s="253"/>
+      <c r="AD9" s="253"/>
+      <c r="AE9" s="253"/>
+      <c r="AF9" s="253"/>
+      <c r="AG9" s="253"/>
+      <c r="AH9" s="253"/>
+      <c r="AI9" s="253"/>
+      <c r="AJ9" s="253"/>
+      <c r="AK9" s="253"/>
+      <c r="AL9" s="253"/>
+      <c r="AM9" s="254"/>
     </row>
     <row r="10" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="246"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="269"/>
+      <c r="A10" s="266"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="259"/>
       <c r="E10" s="22">
         <v>3</v>
       </c>
@@ -9514,10 +9514,10 @@
       <c r="AM10" s="137"/>
     </row>
     <row r="11" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="246"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="269"/>
+      <c r="A11" s="266"/>
+      <c r="B11" s="269"/>
+      <c r="C11" s="269"/>
+      <c r="D11" s="259"/>
       <c r="E11" s="22">
         <v>4</v>
       </c>
@@ -9562,7 +9562,7 @@
       <c r="AM11" s="137"/>
     </row>
     <row r="12" spans="1:39" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="245"/>
+      <c r="A12" s="252"/>
       <c r="B12" s="36" t="s">
         <v>342</v>
       </c>
@@ -9616,7 +9616,7 @@
       <c r="AM12" s="137"/>
     </row>
     <row r="13" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="254" t="s">
+      <c r="A13" s="250" t="s">
         <v>543</v>
       </c>
       <c r="B13" s="170" t="s">
@@ -9672,14 +9672,14 @@
       <c r="AM13" s="137"/>
     </row>
     <row r="14" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="255"/>
-      <c r="B14" s="251" t="s">
+      <c r="A14" s="271"/>
+      <c r="B14" s="260" t="s">
         <v>580</v>
       </c>
-      <c r="C14" s="251" t="s">
+      <c r="C14" s="260" t="s">
         <v>581</v>
       </c>
-      <c r="D14" s="270" t="s">
+      <c r="D14" s="262" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="22">
@@ -9690,10 +9690,10 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="255"/>
-      <c r="B15" s="252"/>
-      <c r="C15" s="252"/>
-      <c r="D15" s="271"/>
+      <c r="A15" s="271"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="263"/>
       <c r="E15" s="22">
         <v>1</v>
       </c>
@@ -9702,10 +9702,10 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="255"/>
-      <c r="B16" s="253"/>
-      <c r="C16" s="253"/>
-      <c r="D16" s="273"/>
+      <c r="A16" s="271"/>
+      <c r="B16" s="261"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="265"/>
       <c r="E16" s="22">
         <v>2</v>
       </c>
@@ -9714,14 +9714,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="255"/>
-      <c r="B17" s="251" t="s">
+      <c r="A17" s="271"/>
+      <c r="B17" s="260" t="s">
         <v>583</v>
       </c>
-      <c r="C17" s="251" t="s">
+      <c r="C17" s="260" t="s">
         <v>584</v>
       </c>
-      <c r="D17" s="270" t="s">
+      <c r="D17" s="262" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="22">
@@ -9732,10 +9732,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="255"/>
-      <c r="B18" s="253"/>
-      <c r="C18" s="253"/>
-      <c r="D18" s="273"/>
+      <c r="A18" s="271"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="265"/>
       <c r="E18" s="22">
         <v>1</v>
       </c>
@@ -9744,14 +9744,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="255"/>
-      <c r="B19" s="251" t="s">
+      <c r="A19" s="271"/>
+      <c r="B19" s="260" t="s">
         <v>569</v>
       </c>
-      <c r="C19" s="251" t="s">
+      <c r="C19" s="260" t="s">
         <v>570</v>
       </c>
-      <c r="D19" s="270" t="s">
+      <c r="D19" s="262" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="22">
@@ -9762,10 +9762,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="255"/>
-      <c r="B20" s="252"/>
-      <c r="C20" s="252"/>
-      <c r="D20" s="271"/>
+      <c r="A20" s="271"/>
+      <c r="B20" s="270"/>
+      <c r="C20" s="270"/>
+      <c r="D20" s="263"/>
       <c r="E20" s="22">
         <v>1</v>
       </c>
@@ -9774,10 +9774,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="255"/>
-      <c r="B21" s="252"/>
-      <c r="C21" s="252"/>
-      <c r="D21" s="271"/>
+      <c r="A21" s="271"/>
+      <c r="B21" s="270"/>
+      <c r="C21" s="270"/>
+      <c r="D21" s="263"/>
       <c r="E21" s="22">
         <v>2</v>
       </c>
@@ -9786,10 +9786,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="255"/>
-      <c r="B22" s="252"/>
-      <c r="C22" s="252"/>
-      <c r="D22" s="271"/>
+      <c r="A22" s="271"/>
+      <c r="B22" s="270"/>
+      <c r="C22" s="270"/>
+      <c r="D22" s="263"/>
       <c r="E22" s="22">
         <v>3</v>
       </c>
@@ -9798,10 +9798,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="255"/>
-      <c r="B23" s="252"/>
-      <c r="C23" s="252"/>
-      <c r="D23" s="271"/>
+      <c r="A23" s="271"/>
+      <c r="B23" s="270"/>
+      <c r="C23" s="270"/>
+      <c r="D23" s="263"/>
       <c r="E23" s="22">
         <v>4</v>
       </c>
@@ -9810,10 +9810,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="255"/>
-      <c r="B24" s="252"/>
-      <c r="C24" s="252"/>
-      <c r="D24" s="271"/>
+      <c r="A24" s="271"/>
+      <c r="B24" s="270"/>
+      <c r="C24" s="270"/>
+      <c r="D24" s="263"/>
       <c r="E24" s="22">
         <v>5</v>
       </c>
@@ -9822,10 +9822,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="256"/>
-      <c r="B25" s="257"/>
-      <c r="C25" s="257"/>
-      <c r="D25" s="272"/>
+      <c r="A25" s="272"/>
+      <c r="B25" s="273"/>
+      <c r="C25" s="273"/>
+      <c r="D25" s="264"/>
       <c r="E25" s="36">
         <v>6</v>
       </c>
@@ -9876,7 +9876,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="250" t="s">
+      <c r="A38" s="249" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -9890,7 +9890,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="250"/>
+      <c r="A39" s="249"/>
       <c r="B39" s="22" t="s">
         <v>354</v>
       </c>
@@ -9902,7 +9902,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="250"/>
+      <c r="A40" s="249"/>
       <c r="B40" s="36" t="s">
         <v>358</v>
       </c>
@@ -9914,7 +9914,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="250" t="s">
+      <c r="A41" s="249" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -9928,7 +9928,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="250"/>
+      <c r="A42" s="249"/>
       <c r="B42" s="22" t="s">
         <v>363</v>
       </c>
@@ -9940,7 +9940,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="254"/>
+      <c r="A43" s="250"/>
       <c r="B43" s="126" t="s">
         <v>365</v>
       </c>
@@ -9952,7 +9952,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="244" t="s">
+      <c r="A44" s="251" t="s">
         <v>228</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -9966,7 +9966,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="245"/>
+      <c r="A45" s="252"/>
       <c r="B45" s="36" t="s">
         <v>368</v>
       </c>
@@ -9978,7 +9978,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="247" t="s">
+      <c r="A46" s="267" t="s">
         <v>239</v>
       </c>
       <c r="B46" s="69" t="s">
@@ -9992,7 +9992,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="246"/>
+      <c r="A47" s="266"/>
       <c r="B47" s="22" t="s">
         <v>371</v>
       </c>
@@ -10004,7 +10004,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="246"/>
+      <c r="A48" s="266"/>
       <c r="B48" s="22" t="s">
         <v>373</v>
       </c>
@@ -10016,7 +10016,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="246"/>
+      <c r="A49" s="266"/>
       <c r="B49" s="22" t="s">
         <v>375</v>
       </c>
@@ -10028,7 +10028,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="245"/>
+      <c r="A50" s="252"/>
       <c r="B50" s="36" t="s">
         <v>377</v>
       </c>
@@ -10040,7 +10040,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="244" t="s">
+      <c r="A51" s="251" t="s">
         <v>477</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -10054,7 +10054,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="245"/>
+      <c r="A52" s="252"/>
       <c r="B52" s="36" t="s">
         <v>480</v>
       </c>
@@ -10067,6 +10067,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:C25"/>
     <mergeCell ref="H1:AM1"/>
     <mergeCell ref="R3:AM3"/>
     <mergeCell ref="I3:Q3"/>
@@ -10082,19 +10095,6 @@
     <mergeCell ref="D19:D25"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:C25"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -10105,8 +10105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10711,10 +10711,10 @@
     </row>
     <row r="39" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="222" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B39" s="225" t="s">
-        <v>799</v>
+        <v>830</v>
       </c>
       <c r="C39" s="223"/>
       <c r="E39" s="211" t="s">
@@ -10729,7 +10729,7 @@
     </row>
     <row r="40" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="222" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B40" s="205" t="s">
         <v>798</v>
@@ -10747,10 +10747,10 @@
     </row>
     <row r="41" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="222" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B41" s="205" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C41" s="223"/>
       <c r="E41" s="151"/>
@@ -10773,7 +10773,7 @@
     </row>
     <row r="43" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="224" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B43" s="205"/>
       <c r="C43" s="223"/>
@@ -10789,10 +10789,10 @@
     </row>
     <row r="44" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="222" t="s">
+        <v>804</v>
+      </c>
+      <c r="B44" s="205" t="s">
         <v>805</v>
-      </c>
-      <c r="B44" s="205" t="s">
-        <v>806</v>
       </c>
       <c r="C44" s="223"/>
       <c r="E44" s="211" t="s">
@@ -10807,7 +10807,7 @@
     </row>
     <row r="45" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="222" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B45" s="226">
         <v>77</v>
@@ -10825,10 +10825,10 @@
     </row>
     <row r="46" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="222" t="s">
+        <v>807</v>
+      </c>
+      <c r="B46" s="205" t="s">
         <v>808</v>
-      </c>
-      <c r="B46" s="205" t="s">
-        <v>809</v>
       </c>
       <c r="C46" s="223"/>
       <c r="E46" s="151"/>
@@ -10837,10 +10837,10 @@
     </row>
     <row r="47" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="222" t="s">
+        <v>809</v>
+      </c>
+      <c r="B47" s="205" t="s">
         <v>810</v>
-      </c>
-      <c r="B47" s="205" t="s">
-        <v>811</v>
       </c>
       <c r="C47" s="223"/>
       <c r="E47" s="211" t="s">
@@ -10855,7 +10855,7 @@
     </row>
     <row r="48" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="222" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B48" s="205"/>
       <c r="C48" s="223"/>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="50" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="224" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B50" s="205"/>
       <c r="C50" s="223"/>
@@ -10889,7 +10889,7 @@
     </row>
     <row r="51" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="222" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B51" s="205"/>
       <c r="C51" s="223"/>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="53" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="224" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B53" s="205"/>
       <c r="C53" s="223"/>
@@ -10929,10 +10929,10 @@
     </row>
     <row r="54" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="222" t="s">
+        <v>813</v>
+      </c>
+      <c r="B54" s="205" t="s">
         <v>814</v>
-      </c>
-      <c r="B54" s="205" t="s">
-        <v>815</v>
       </c>
       <c r="C54" s="223"/>
       <c r="E54" s="151" t="s">
@@ -10947,10 +10947,10 @@
     </row>
     <row r="55" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="222" t="s">
+        <v>818</v>
+      </c>
+      <c r="B55" s="205" t="s">
         <v>819</v>
-      </c>
-      <c r="B55" s="205" t="s">
-        <v>820</v>
       </c>
       <c r="C55" s="223"/>
       <c r="E55" s="151" t="s">
@@ -10965,10 +10965,10 @@
     </row>
     <row r="56" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="222" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B56" s="205" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C56" s="223"/>
       <c r="E56" s="151" t="s">
@@ -10983,10 +10983,10 @@
     </row>
     <row r="57" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="222" t="s">
+        <v>828</v>
+      </c>
+      <c r="B57" s="205" t="s">
         <v>829</v>
-      </c>
-      <c r="B57" s="205" t="s">
-        <v>830</v>
       </c>
       <c r="C57" s="223"/>
       <c r="E57" s="151" t="s">
@@ -11001,7 +11001,7 @@
     </row>
     <row r="58" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="222" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B58" s="205" t="s">
         <v>434</v>
@@ -11013,10 +11013,10 @@
     </row>
     <row r="59" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="222" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B59" s="205" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C59" s="223"/>
       <c r="E59" s="151" t="s">
@@ -11031,10 +11031,10 @@
     </row>
     <row r="60" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="222" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B60" s="205" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C60" s="223"/>
       <c r="E60" s="151" t="s">
@@ -11049,10 +11049,10 @@
     </row>
     <row r="61" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="227" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B61" s="228" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C61" s="229"/>
     </row>
@@ -11967,18 +11967,18 @@
     <row r="6" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="281" t="s">
+      <c r="D6" s="279" t="s">
         <v>385</v>
       </c>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="281"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="281"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
       <c r="N6" s="276" t="s">
         <v>386</v>
       </c>
@@ -11991,20 +11991,20 @@
       <c r="U6" s="276"/>
       <c r="V6" s="276"/>
       <c r="W6" s="276"/>
-      <c r="X6" s="282" t="s">
+      <c r="X6" s="280" t="s">
         <v>387</v>
       </c>
-      <c r="Y6" s="282"/>
-      <c r="Z6" s="282"/>
-      <c r="AA6" s="282"/>
-      <c r="AB6" s="282"/>
-      <c r="AC6" s="282"/>
-      <c r="AD6" s="282"/>
-      <c r="AE6" s="282"/>
-      <c r="AF6" s="282"/>
-      <c r="AG6" s="282"/>
-      <c r="AH6" s="282"/>
-      <c r="AI6" s="282"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="280"/>
+      <c r="AA6" s="280"/>
+      <c r="AB6" s="280"/>
+      <c r="AC6" s="280"/>
+      <c r="AD6" s="280"/>
+      <c r="AE6" s="280"/>
+      <c r="AF6" s="280"/>
+      <c r="AG6" s="280"/>
+      <c r="AH6" s="280"/>
+      <c r="AI6" s="280"/>
       <c r="AJ6" s="85"/>
       <c r="AK6" s="85"/>
       <c r="AL6" s="85"/>
@@ -12012,44 +12012,44 @@
     <row r="7" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="283" t="s">
+      <c r="D7" s="281" t="s">
         <v>388</v>
       </c>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="283"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="283"/>
-      <c r="M7" s="283"/>
-      <c r="N7" s="283" t="s">
+      <c r="E7" s="281"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="281"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="281"/>
+      <c r="J7" s="281"/>
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281" t="s">
         <v>389</v>
       </c>
-      <c r="O7" s="283"/>
-      <c r="P7" s="283"/>
-      <c r="Q7" s="283"/>
-      <c r="R7" s="283"/>
-      <c r="S7" s="283"/>
-      <c r="T7" s="283"/>
-      <c r="U7" s="283"/>
-      <c r="V7" s="283"/>
-      <c r="W7" s="283"/>
-      <c r="X7" s="283" t="s">
+      <c r="O7" s="281"/>
+      <c r="P7" s="281"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281" t="s">
         <v>390</v>
       </c>
-      <c r="Y7" s="283"/>
-      <c r="Z7" s="283"/>
-      <c r="AA7" s="283"/>
-      <c r="AB7" s="283"/>
-      <c r="AC7" s="283"/>
-      <c r="AD7" s="283"/>
-      <c r="AE7" s="283"/>
-      <c r="AF7" s="283"/>
-      <c r="AG7" s="283"/>
-      <c r="AH7" s="283"/>
-      <c r="AI7" s="283"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="281"/>
       <c r="AJ7" s="85"/>
       <c r="AK7" s="85"/>
       <c r="AL7" s="85"/>
@@ -12138,11 +12138,11 @@
         <v>391</v>
       </c>
       <c r="D10" s="85"/>
-      <c r="E10" s="279" t="s">
+      <c r="E10" s="282" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="279"/>
-      <c r="G10" s="279"/>
+      <c r="F10" s="282"/>
+      <c r="G10" s="282"/>
       <c r="H10" s="96"/>
       <c r="I10" s="85" t="s">
         <v>392</v>
@@ -12263,16 +12263,16 @@
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
-      <c r="G13" s="280" t="s">
+      <c r="G13" s="283" t="s">
         <v>394</v>
       </c>
-      <c r="H13" s="280"/>
-      <c r="I13" s="280"/>
-      <c r="J13" s="279" t="s">
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="282" t="s">
         <v>395</v>
       </c>
-      <c r="K13" s="279"/>
-      <c r="L13" s="279"/>
+      <c r="K13" s="282"/>
+      <c r="L13" s="282"/>
       <c r="M13" s="98" t="s">
         <v>396</v>
       </c>
@@ -12310,16 +12310,16 @@
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="85"/>
-      <c r="G14" s="280" t="s">
+      <c r="G14" s="283" t="s">
         <v>397</v>
       </c>
-      <c r="H14" s="280"/>
-      <c r="I14" s="280"/>
-      <c r="J14" s="279" t="s">
+      <c r="H14" s="283"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="282" t="s">
         <v>398</v>
       </c>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
+      <c r="K14" s="282"/>
+      <c r="L14" s="282"/>
       <c r="M14" s="100">
         <v>1</v>
       </c>
@@ -12359,16 +12359,16 @@
       <c r="F15" s="85" t="s">
         <v>399</v>
       </c>
-      <c r="G15" s="280" t="s">
+      <c r="G15" s="283" t="s">
         <v>388</v>
       </c>
-      <c r="H15" s="280"/>
-      <c r="I15" s="280"/>
-      <c r="J15" s="279" t="s">
+      <c r="H15" s="283"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="282" t="s">
         <v>400</v>
       </c>
-      <c r="K15" s="279"/>
-      <c r="L15" s="279"/>
+      <c r="K15" s="282"/>
+      <c r="L15" s="282"/>
       <c r="M15" s="100">
         <v>1</v>
       </c>
@@ -12408,16 +12408,16 @@
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
       <c r="F16" s="85"/>
-      <c r="G16" s="280" t="s">
+      <c r="G16" s="283" t="s">
         <v>402</v>
       </c>
-      <c r="H16" s="280"/>
-      <c r="I16" s="280"/>
-      <c r="J16" s="279" t="s">
+      <c r="H16" s="283"/>
+      <c r="I16" s="283"/>
+      <c r="J16" s="282" t="s">
         <v>395</v>
       </c>
-      <c r="K16" s="279"/>
-      <c r="L16" s="279"/>
+      <c r="K16" s="282"/>
+      <c r="L16" s="282"/>
       <c r="M16" s="98" t="s">
         <v>396</v>
       </c>
@@ -12540,15 +12540,15 @@
       <c r="I19" s="85"/>
       <c r="J19" s="85"/>
       <c r="K19" s="85"/>
-      <c r="L19" s="280" t="s">
+      <c r="L19" s="283" t="s">
         <v>404</v>
       </c>
-      <c r="M19" s="280"/>
-      <c r="N19" s="279" t="s">
+      <c r="M19" s="283"/>
+      <c r="N19" s="282" t="s">
         <v>405</v>
       </c>
-      <c r="O19" s="279"/>
-      <c r="P19" s="279"/>
+      <c r="O19" s="282"/>
+      <c r="P19" s="282"/>
       <c r="Q19" s="100">
         <v>1</v>
       </c>
@@ -12591,15 +12591,15 @@
       <c r="K20" s="85" t="s">
         <v>399</v>
       </c>
-      <c r="L20" s="280" t="s">
+      <c r="L20" s="283" t="s">
         <v>389</v>
       </c>
-      <c r="M20" s="280"/>
-      <c r="N20" s="279" t="s">
+      <c r="M20" s="283"/>
+      <c r="N20" s="282" t="s">
         <v>406</v>
       </c>
-      <c r="O20" s="279"/>
-      <c r="P20" s="279"/>
+      <c r="O20" s="282"/>
+      <c r="P20" s="282"/>
       <c r="Q20" s="100">
         <v>1</v>
       </c>
@@ -12642,15 +12642,15 @@
       <c r="I21" s="85"/>
       <c r="J21" s="85"/>
       <c r="K21" s="85"/>
-      <c r="L21" s="280" t="s">
+      <c r="L21" s="283" t="s">
         <v>408</v>
       </c>
-      <c r="M21" s="280"/>
-      <c r="N21" s="279" t="s">
+      <c r="M21" s="283"/>
+      <c r="N21" s="282" t="s">
         <v>395</v>
       </c>
-      <c r="O21" s="279"/>
-      <c r="P21" s="279"/>
+      <c r="O21" s="282"/>
+      <c r="P21" s="282"/>
       <c r="Q21" s="98" t="s">
         <v>396</v>
       </c>
@@ -12762,27 +12762,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D6:M6"/>
     <mergeCell ref="N6:W6"/>
     <mergeCell ref="X6:AI6"/>
     <mergeCell ref="D7:M7"/>
     <mergeCell ref="N7:W7"/>
     <mergeCell ref="X7:AI7"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
